--- a/业务总线矩阵、指标体系、配置表/物流实时业务总线矩阵.xlsx
+++ b/业务总线矩阵、指标体系、配置表/物流实时业务总线矩阵.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\物流\实时\业务总线矩阵、指标体系、配置表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6600E0B8-CB7B-4D7B-AD79-B01C1A5A4CBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12934E4B-745F-4F8D-9156-F0AAD591DFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21710" yWindow="-110" windowWidth="21820" windowHeight="38020" xr2:uid="{BA3A49D1-9ECE-4F8F-AC1D-53B918821913}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BA3A49D1-9ECE-4F8F-AC1D-53B918821913}"/>
   </bookViews>
   <sheets>
     <sheet name="完整版" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="42">
   <si>
     <t>度量</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -183,6 +183,22 @@
   </si>
   <si>
     <t>两个机构之间的一次运输操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个运单的入库操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个运单的出库操作</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -387,6 +403,12 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -400,12 +422,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -794,13 +810,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBC5F044-1B71-43F1-BFF4-A577C663507E}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J17" sqref="J17"/>
+      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -817,28 +833,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="11" t="s">
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="13" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
       <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
@@ -860,11 +876,11 @@
       <c r="I2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="12"/>
+      <c r="J2" s="14"/>
     </row>
     <row r="3" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
       <c r="C3" s="6" t="s">
         <v>19</v>
       </c>
@@ -886,7 +902,7 @@
       <c r="I3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="13"/>
+      <c r="J3" s="15"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
@@ -911,24 +927,24 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="J5" s="14" t="s">
+      <c r="C5" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="9" t="s">
         <v>34</v>
       </c>
     </row>
@@ -955,28 +971,28 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="J7" s="15" t="s">
+      <c r="C7" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" s="10" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1037,60 +1053,106 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J10" s="4" t="s">
+      <c r="C11" s="4"/>
+      <c r="D11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J11" s="2" t="s">
+      <c r="C13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J13" s="2" t="s">
         <v>34</v>
       </c>
     </row>
